--- a/src/utils/sxsyzlzq/shijiesai/第七届128.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/第七届128.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13425" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
   <si>
     <t>133-叶小怪</t>
   </si>
@@ -43,13 +43,31 @@
     <t>路人</t>
   </si>
   <si>
+    <t>135-卡洛</t>
+  </si>
+  <si>
+    <t>134-木轩</t>
+  </si>
+  <si>
+    <t>145-1</t>
+  </si>
+  <si>
     <t>152-新蜂幻境</t>
   </si>
   <si>
     <t>139-Sure</t>
   </si>
   <si>
-    <t>134-木轩</t>
+    <t>146-KB</t>
+  </si>
+  <si>
+    <t>145-杜佳捷</t>
+  </si>
+  <si>
+    <t>148-请叫我阿奎</t>
+  </si>
+  <si>
+    <t>131-孔琦</t>
   </si>
   <si>
     <t>148-淘汰郎</t>
@@ -61,16 +79,34 @@
     <t>133-神经蛙（冰）</t>
   </si>
   <si>
+    <t>137-vwafew</t>
+  </si>
+  <si>
+    <t>149-灰企鹅呆瓜</t>
+  </si>
+  <si>
+    <t>136-OK（开尔文</t>
+  </si>
+  <si>
+    <t>131-神经蛙</t>
+  </si>
+  <si>
     <t>132-神经蛙</t>
   </si>
   <si>
-    <t>145-1</t>
-  </si>
-  <si>
     <t>153-摆叶</t>
   </si>
   <si>
-    <t>146-KB</t>
+    <t>136-W Z</t>
+  </si>
+  <si>
+    <t>157-段</t>
+  </si>
+  <si>
+    <t>150-开飞机的贝塔</t>
+  </si>
+  <si>
+    <t>154-Felix</t>
   </si>
   <si>
     <t>138-开心就好</t>
@@ -79,33 +115,66 @@
     <t>133-神经蛙（港）</t>
   </si>
   <si>
-    <t>148-请叫我阿奎</t>
-  </si>
-  <si>
     <t>152-*托</t>
   </si>
   <si>
     <t>137-星星</t>
   </si>
   <si>
-    <t>145-杜佳捷</t>
-  </si>
-  <si>
-    <t>131-孔琦</t>
+    <t>148-大核桃</t>
+  </si>
+  <si>
+    <t>159-神瑛</t>
+  </si>
+  <si>
+    <t>129-旧城之下</t>
+  </si>
+  <si>
+    <t>132-YOKE</t>
+  </si>
+  <si>
+    <t>145-小黑</t>
+  </si>
+  <si>
+    <t>133-杨豆豆</t>
+  </si>
+  <si>
+    <t>150-朱</t>
+  </si>
+  <si>
+    <t>145-SZH（老唐）</t>
+  </si>
+  <si>
+    <t>137-鹰の一手</t>
+  </si>
+  <si>
+    <t>145-古月星辰</t>
+  </si>
+  <si>
+    <t>142-多幸运</t>
+  </si>
+  <si>
+    <t>130-随￥缘</t>
   </si>
   <si>
     <t>157-空泣</t>
   </si>
   <si>
+    <t>145-[永恒]</t>
+  </si>
+  <si>
+    <t>137-No.Mr</t>
+  </si>
+  <si>
+    <t>151-suola</t>
+  </si>
+  <si>
+    <t>157-#</t>
+  </si>
+  <si>
     <t>151-星空</t>
   </si>
   <si>
-    <t>149-灰企鹅呆瓜</t>
-  </si>
-  <si>
-    <t>131-神经蛙</t>
-  </si>
-  <si>
     <t>141-黑色香槟</t>
   </si>
   <si>
@@ -118,27 +187,12 @@
     <t>149-桂林碧桂园</t>
   </si>
   <si>
-    <t>136-W Z</t>
-  </si>
-  <si>
-    <t>150-开飞机的贝塔</t>
-  </si>
-  <si>
     <t>136-橙子</t>
   </si>
   <si>
-    <t>157-段</t>
-  </si>
-  <si>
     <t>137-神之千手</t>
   </si>
   <si>
-    <t>148-大核桃</t>
-  </si>
-  <si>
-    <t>129-旧城之下</t>
-  </si>
-  <si>
     <t>145-清风</t>
   </si>
   <si>
@@ -148,48 +202,21 @@
     <t>148-大良91档钟</t>
   </si>
   <si>
-    <t>132-YOKE</t>
-  </si>
-  <si>
-    <t>159-神瑛</t>
-  </si>
-  <si>
     <t>148-12345</t>
   </si>
   <si>
     <t>137-神之九手</t>
   </si>
   <si>
-    <t>145-小黑</t>
-  </si>
-  <si>
-    <t>150-朱</t>
-  </si>
-  <si>
     <t>134-神经蛙</t>
   </si>
   <si>
-    <t>133-杨豆豆</t>
-  </si>
-  <si>
-    <t>145-SZH（老唐）</t>
-  </si>
-  <si>
     <t>157-躺平的蛙</t>
   </si>
   <si>
     <t>137-菜的够吊</t>
   </si>
   <si>
-    <t>137-鹰の一手</t>
-  </si>
-  <si>
-    <t>145-古月星辰</t>
-  </si>
-  <si>
-    <t>130-随￥缘</t>
-  </si>
-  <si>
     <t>133-抹小布</t>
   </si>
   <si>
@@ -202,22 +229,10 @@
     <t>145-明</t>
   </si>
   <si>
-    <t>145-[永恒]</t>
-  </si>
-  <si>
     <t>130-自然</t>
   </si>
   <si>
-    <t>151-suola</t>
-  </si>
-  <si>
-    <t>137-No.Mr</t>
-  </si>
-  <si>
     <t>151-秋雨</t>
-  </si>
-  <si>
-    <t>157-#</t>
   </si>
 </sst>
 </file>
@@ -584,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -648,6 +663,24 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -778,7 +811,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -790,34 +823,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -902,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,15 +948,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -934,6 +976,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1247,21 +1304,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F37"/>
+  <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:12">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,451 +1335,558 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="L2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="4" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="L3" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="6" t="s">
+    <row r="4" spans="2:12">
+      <c r="B4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="K4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="4" t="s">
+      <c r="L4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="4" t="s">
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>3</v>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="L6" s="16"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="L7" s="16"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="H10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="6" t="s">
+      <c r="C16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6">
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="9" t="s">
+      <c r="C18" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="4" t="s">
+      <c r="C28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="F28" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="C31" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="F32" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="E34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="4" t="s">
+      <c r="C37" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="4"/>
-      <c r="C29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>3</v>
+      <c r="F37" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="12" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/src/utils/sxsyzlzq/shijiesai/第七届128.xlsx
+++ b/src/utils/sxsyzlzq/shijiesai/第七届128.xlsx
@@ -935,7 +935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,18 +948,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -975,22 +969,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1307,7 +1289,7 @@
   <dimension ref="B2:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J87" sqref="J87"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1335,34 +1317,34 @@
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
@@ -1371,24 +1353,24 @@
       <c r="K3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="F4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I4" t="s">
@@ -1397,24 +1379,24 @@
       <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="I5" t="s">
@@ -1423,56 +1405,56 @@
       <c r="K5" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="L6" s="16"/>
+      <c r="H6" s="4"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="L7" s="16"/>
+      <c r="F7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I8" t="s">
@@ -1481,24 +1463,24 @@
       <c r="K8" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="I9" t="s">
@@ -1507,16 +1489,16 @@
       <c r="K9" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="H10" s="7" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="H10" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I10" t="s">
@@ -1525,132 +1507,132 @@
       <c r="K10" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="B11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="B12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="6" t="s">
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="C18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1669,223 +1651,223 @@
       </c>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="B22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="C24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="6" t="s">
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="B26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="6" t="s">
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="C28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="C30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F31" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="C33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="B35" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="6" t="s">
+      <c r="B36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="3:3">
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>67</v>
       </c>
     </row>
